--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -399,7 +399,7 @@
     <t>URBANO GARCIA EVELYN</t>
   </si>
   <si>
-    <t>VAZQUEZ HERNANDEZ VICTOR MANUEL</t>
+    <t>VASQUEZ HERNANDEZ VICTOR MANUEL</t>
   </si>
   <si>
     <t>VERA PONCE MARITZA</t>
@@ -651,6 +651,9 @@
     <t>CABRERA RODRIGUEZ DANIEL</t>
   </si>
   <si>
+    <t>CAMARILLO SORIA ARIZBET</t>
+  </si>
+  <si>
     <t>CARAZA CRUZ JARED URIEL</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
   </si>
   <si>
     <t>ROJAS ROJAS DULCE MARIA</t>
-  </si>
-  <si>
-    <t>SORIA CAMARILLO ARIZBET</t>
   </si>
   <si>
     <t>TORRES CARRASCO ZULEICA RENATA</t>
@@ -63410,22 +63410,22 @@
         <v>201</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -63469,7 +63469,7 @@
         <v>202</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -63481,10 +63481,10 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -63528,22 +63528,22 @@
         <v>203</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -63587,19 +63587,19 @@
         <v>204</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -63646,19 +63646,19 @@
         <v>205</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -63705,22 +63705,22 @@
         <v>206</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -63764,10 +63764,10 @@
         <v>207</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -63776,10 +63776,10 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -63829,16 +63829,16 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -63882,19 +63882,19 @@
         <v>209</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -63941,22 +63941,22 @@
         <v>210</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -64000,22 +64000,22 @@
         <v>211</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -64059,10 +64059,10 @@
         <v>212</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -64071,10 +64071,10 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -64127,10 +64127,10 @@
         <v>-1</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -64177,22 +64177,22 @@
         <v>214</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -64236,22 +64236,22 @@
         <v>215</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -64295,19 +64295,19 @@
         <v>216</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -64357,16 +64357,16 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -64413,19 +64413,19 @@
         <v>218</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -64472,22 +64472,22 @@
         <v>219</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -64531,22 +64531,22 @@
         <v>220</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -64590,22 +64590,22 @@
         <v>221</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -64649,22 +64649,22 @@
         <v>222</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -64708,22 +64708,22 @@
         <v>223</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -64776,13 +64776,13 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -64829,19 +64829,19 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -64888,19 +64888,19 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>-1</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -7827,7 +7827,7 @@
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -7895,7 +7895,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -7963,7 +7963,7 @@
         <v>8</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>9</v>
@@ -8031,7 +8031,7 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -8099,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>9</v>
@@ -8167,7 +8167,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -8235,7 +8235,7 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -8303,7 +8303,7 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -8371,7 +8371,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -8507,7 +8507,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -8575,7 +8575,7 @@
         <v>9</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -8643,7 +8643,7 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -8711,7 +8711,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -8779,7 +8779,7 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -8847,7 +8847,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -8915,7 +8915,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>8</v>
@@ -8983,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -9051,7 +9051,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -9119,7 +9119,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -9187,7 +9187,7 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -9255,7 +9255,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -9323,7 +9323,7 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -9391,7 +9391,7 @@
         <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -9459,7 +9459,7 @@
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -9527,7 +9527,7 @@
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -9595,7 +9595,7 @@
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -9663,7 +9663,7 @@
         <v>7</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -9731,7 +9731,7 @@
         <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -9799,7 +9799,7 @@
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -9867,7 +9867,7 @@
         <v>9</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -9935,7 +9935,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>8</v>
@@ -10003,7 +10003,7 @@
         <v>7</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>8</v>
@@ -10071,7 +10071,7 @@
         <v>-1</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -10139,7 +10139,7 @@
         <v>9</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -10207,7 +10207,7 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -10275,7 +10275,7 @@
         <v>-1</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M40">
         <v>-1</v>
@@ -10467,7 +10467,7 @@
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -10535,7 +10535,7 @@
         <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -10603,7 +10603,7 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -10671,7 +10671,7 @@
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -10807,7 +10807,7 @@
         <v>9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -10875,7 +10875,7 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -10943,7 +10943,7 @@
         <v>8</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -11011,7 +11011,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -11079,7 +11079,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -11215,7 +11215,7 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -11283,7 +11283,7 @@
         <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -11351,7 +11351,7 @@
         <v>8</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>9</v>
@@ -11419,7 +11419,7 @@
         <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -11555,7 +11555,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -11623,7 +11623,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -11691,7 +11691,7 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -11759,7 +11759,7 @@
         <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -11827,7 +11827,7 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -11895,7 +11895,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -11963,7 +11963,7 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -12031,7 +12031,7 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -12099,7 +12099,7 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -12167,7 +12167,7 @@
         <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>8</v>
@@ -12235,7 +12235,7 @@
         <v>9</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -12303,7 +12303,7 @@
         <v>6</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>10</v>
@@ -12371,7 +12371,7 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -12439,7 +12439,7 @@
         <v>9</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -12507,7 +12507,7 @@
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>5</v>
@@ -12575,7 +12575,7 @@
         <v>9</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>9</v>
@@ -12643,7 +12643,7 @@
         <v>9</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -12711,7 +12711,7 @@
         <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -12779,7 +12779,7 @@
         <v>-1</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -12847,7 +12847,7 @@
         <v>8</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -19201,7 +19201,7 @@
         <v>-1</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -19378,7 +19378,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -19850,7 +19850,7 @@
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -48855,7 +48855,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -48914,7 +48914,7 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -48973,7 +48973,7 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -49150,7 +49150,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -49268,7 +49268,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -49386,7 +49386,7 @@
         <v>8</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -49445,7 +49445,7 @@
         <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -49504,7 +49504,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -49681,7 +49681,7 @@
         <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -49740,7 +49740,7 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -49917,7 +49917,7 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>6</v>
@@ -49976,7 +49976,7 @@
         <v>8</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -50035,7 +50035,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -50271,7 +50271,7 @@
         <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -70818,7 +70818,7 @@
         <v>6</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -70886,7 +70886,7 @@
         <v>7</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -70954,7 +70954,7 @@
         <v>-1</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -71022,7 +71022,7 @@
         <v>9</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -71090,7 +71090,7 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -71158,7 +71158,7 @@
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -71226,7 +71226,7 @@
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -71294,7 +71294,7 @@
         <v>6</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -71362,7 +71362,7 @@
         <v>7</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -71430,7 +71430,7 @@
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -71498,7 +71498,7 @@
         <v>-1</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -71566,7 +71566,7 @@
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -71634,7 +71634,7 @@
         <v>-1</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -71702,7 +71702,7 @@
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -71770,7 +71770,7 @@
         <v>-1</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -71838,7 +71838,7 @@
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -71906,7 +71906,7 @@
         <v>-1</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -71974,7 +71974,7 @@
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -72042,7 +72042,7 @@
         <v>8</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -72110,7 +72110,7 @@
         <v>6</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -72178,7 +72178,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -72246,7 +72246,7 @@
         <v>10</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -72314,7 +72314,7 @@
         <v>-1</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -72382,7 +72382,7 @@
         <v>6</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -72450,7 +72450,7 @@
         <v>-1</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -72518,7 +72518,7 @@
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -72586,7 +72586,7 @@
         <v>6</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -72654,7 +72654,7 @@
         <v>-1</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <v>-1</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -2376,10 +2376,10 @@
     <t>RODRIGUEZ BARRAGAN LUCERO</t>
   </si>
   <si>
+    <t>ROSAS SALAZAR MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>RUIZ LOPEZ XIMENA MICHELL</t>
-  </si>
-  <si>
-    <t>SALAZAR MARIA FERNANDA ROSAS</t>
   </si>
   <si>
     <t>SANCHEZ RAMON MEILYN ADABEL</t>
@@ -34991,40 +34991,40 @@
         <v>776</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -35050,40 +35050,40 @@
         <v>777</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>8</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N37">
         <v>-1</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -8566,7 +8566,7 @@
         <v>9</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -8974,7 +8974,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -9858,7 +9858,7 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -10130,7 +10130,7 @@
         <v>8</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -24847,7 +24847,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>9</v>
@@ -25083,7 +25083,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -31939,7 +31939,7 @@
         <v>6</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -55723,7 +55723,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -56021,7 +56021,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -56434,7 +56434,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -65635,7 +65635,7 @@
         <v>243</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -65839,7 +65839,7 @@
         <v>246</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -65907,7 +65907,7 @@
         <v>247</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -66043,7 +66043,7 @@
         <v>249</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -66111,7 +66111,7 @@
         <v>250</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -66247,7 +66247,7 @@
         <v>252</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -66859,7 +66859,7 @@
         <v>261</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -66948,7 +66948,7 @@
         <v>7</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <v>8</v>
@@ -66995,7 +66995,7 @@
         <v>263</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -67403,7 +67403,7 @@
         <v>269</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -67471,7 +67471,7 @@
         <v>270</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -67628,7 +67628,7 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -67879,7 +67879,7 @@
         <v>276</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -67947,7 +67947,7 @@
         <v>277</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>6</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -6278,7 +6278,7 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -6437,7 +6437,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -6750,7 +6750,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -7104,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -7517,7 +7517,7 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -10198,7 +10198,7 @@
         <v>8</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -23201,7 +23201,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -37562,7 +37562,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -38153,7 +38153,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -38174,7 +38174,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -39392,7 +39392,7 @@
         <v>-1</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -39664,7 +39664,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -44446,7 +44446,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -44800,7 +44800,7 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>7</v>
@@ -46275,7 +46275,7 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -48687,7 +48687,7 @@
         <v>7</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -53201,7 +53201,7 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -56242,7 +56242,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -66460,7 +66460,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -66481,7 +66481,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -67832,7 +67832,7 @@
         <v>8</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>8</v>
@@ -70392,7 +70392,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>8</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -6700,7 +6700,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -6759,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -16912,7 +16912,7 @@
         <v>10</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L32">
         <v>9</v>
@@ -24888,7 +24888,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -24906,7 +24906,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -24947,7 +24947,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -24965,7 +24965,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -25024,7 +25024,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -25124,7 +25124,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -25142,7 +25142,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -25201,7 +25201,7 @@
         <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -25242,7 +25242,7 @@
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -25260,7 +25260,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -25319,7 +25319,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -25360,7 +25360,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -25378,7 +25378,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -25419,7 +25419,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -25437,7 +25437,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -25478,7 +25478,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -25496,7 +25496,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -25537,7 +25537,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -25555,7 +25555,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -25596,7 +25596,7 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -25614,7 +25614,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -25655,7 +25655,7 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -25673,7 +25673,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -25714,7 +25714,7 @@
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -25732,7 +25732,7 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -25791,7 +25791,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -25891,7 +25891,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -25909,7 +25909,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -25968,7 +25968,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -26027,7 +26027,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -26086,7 +26086,7 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -26127,7 +26127,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -26145,7 +26145,7 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -26204,7 +26204,7 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -26245,7 +26245,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -26263,7 +26263,7 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -26363,7 +26363,7 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -26381,7 +26381,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -26558,7 +26558,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -26599,7 +26599,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -26617,7 +26617,7 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -26658,7 +26658,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -26676,7 +26676,7 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -26794,7 +26794,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -26835,7 +26835,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -26853,7 +26853,7 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -26912,7 +26912,7 @@
         <v>6</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -29634,7 +29634,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -29675,7 +29675,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -29693,7 +29693,7 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -29793,7 +29793,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -29811,7 +29811,7 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -29852,7 +29852,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -29870,7 +29870,7 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -29911,7 +29911,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -29929,7 +29929,7 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -29988,7 +29988,7 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -30029,7 +30029,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -30047,7 +30047,7 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -30088,7 +30088,7 @@
         <v>-1</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -30106,7 +30106,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -30165,7 +30165,7 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -30265,7 +30265,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -30283,7 +30283,7 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -30342,7 +30342,7 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -30519,7 +30519,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -30619,7 +30619,7 @@
         <v>-1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -30637,7 +30637,7 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -30737,7 +30737,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -30755,7 +30755,7 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -30932,7 +30932,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -31032,7 +31032,7 @@
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -31050,7 +31050,7 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -31168,7 +31168,7 @@
         <v>6</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -31209,7 +31209,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -31227,7 +31227,7 @@
         <v>6</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -31646,7 +31646,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -31667,7 +31667,7 @@
         <v>-1</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -31850,7 +31850,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -31871,7 +31871,7 @@
         <v>-1</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -32007,7 +32007,7 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -32054,7 +32054,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -32075,7 +32075,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -32122,7 +32122,7 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -32143,7 +32143,7 @@
         <v>-1</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -32211,7 +32211,7 @@
         <v>8</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <v>7</v>
@@ -32619,7 +32619,7 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>5</v>
@@ -32734,7 +32734,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -32755,7 +32755,7 @@
         <v>7</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>8</v>
@@ -32802,7 +32802,7 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -32823,7 +32823,7 @@
         <v>7</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>5</v>
@@ -32870,7 +32870,7 @@
         <v>7</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -32891,7 +32891,7 @@
         <v>8</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -32959,7 +32959,7 @@
         <v>7</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -38378,7 +38378,7 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -40329,7 +40329,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -44310,7 +44310,7 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -44328,7 +44328,7 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -44871,7 +44871,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -45272,7 +45272,7 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -46198,7 +46198,7 @@
         <v>-1</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -46434,7 +46434,7 @@
         <v>-1</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -46452,7 +46452,7 @@
         <v>-1</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -46493,7 +46493,7 @@
         <v>-1</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -46511,7 +46511,7 @@
         <v>-1</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -46523,7 +46523,7 @@
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -47947,7 +47947,7 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -48660,7 +48660,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -48678,7 +48678,7 @@
         <v>8</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -54652,7 +54652,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -54670,7 +54670,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -61065,7 +61065,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -61142,7 +61142,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -62676,7 +62676,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>-1</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -24809,7 +24809,7 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>5</v>
@@ -35769,13 +35769,13 @@
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R25">
         <v>-1</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -35787,7 +35787,7 @@
         <v>6</v>
       </c>
       <c r="W25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -36000,7 +36000,7 @@
         <v>6</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>-1</v>
@@ -36018,7 +36018,7 @@
         <v>6</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>7</v>
@@ -36450,7 +36450,7 @@
         <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <v>5</v>
@@ -36462,13 +36462,13 @@
         <v>5</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R34">
         <v>-1</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>5</v>
@@ -36480,13 +36480,13 @@
         <v>5</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>9</v>
       </c>
       <c r="Y34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -40016,13 +40016,13 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>9</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>9</v>
@@ -40037,7 +40037,7 @@
         <v>10</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4">
         <v>9</v>
@@ -40063,13 +40063,13 @@
         <v>725</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -40084,13 +40084,13 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -40105,13 +40105,13 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>7</v>
@@ -40126,13 +40126,13 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z5">
         <v>6</v>
@@ -40194,13 +40194,13 @@
         <v>10</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -40283,13 +40283,13 @@
         <v>9</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -40304,7 +40304,7 @@
         <v>9</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <v>7</v>
@@ -40372,13 +40372,13 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>6</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>-1</v>
@@ -40393,13 +40393,13 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8">
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -40461,13 +40461,13 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -40482,13 +40482,13 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>6</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>6</v>
@@ -40550,13 +40550,13 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -40577,7 +40577,7 @@
         <v>7</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z10">
         <v>7</v>
@@ -40686,13 +40686,13 @@
         <v>732</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -40707,13 +40707,13 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -40728,13 +40728,13 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>-1</v>
@@ -40749,13 +40749,13 @@
         <v>8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z12">
         <v>5</v>
@@ -40817,13 +40817,13 @@
         <v>7</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -40844,7 +40844,7 @@
         <v>7</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z13">
         <v>7</v>
@@ -40906,13 +40906,13 @@
         <v>9</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>9</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -40995,13 +40995,13 @@
         <v>9</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>7</v>
@@ -41084,13 +41084,13 @@
         <v>9</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>8</v>
@@ -41173,13 +41173,13 @@
         <v>10</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q17">
         <v>7</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -41220,13 +41220,13 @@
         <v>738</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -41241,13 +41241,13 @@
         <v>6</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -41262,13 +41262,13 @@
         <v>9</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>8</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>9</v>
@@ -41283,13 +41283,13 @@
         <v>8</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>7</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z18">
         <v>7</v>
@@ -41351,13 +41351,13 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>6</v>
@@ -41372,13 +41372,13 @@
         <v>9</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>6</v>
@@ -41440,13 +41440,13 @@
         <v>7</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q20">
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <v>7</v>
@@ -41529,13 +41529,13 @@
         <v>8</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q21">
         <v>6</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <v>9</v>
@@ -41618,13 +41618,13 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <v>7</v>
@@ -41639,13 +41639,13 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X22">
         <v>6</v>
       </c>
       <c r="Y22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z22">
         <v>6</v>
@@ -41707,13 +41707,13 @@
         <v>6</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <v>6</v>
@@ -41728,13 +41728,13 @@
         <v>6</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X23">
         <v>6</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z23">
         <v>6</v>
@@ -41796,13 +41796,13 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <v>6</v>
@@ -50130,13 +50130,13 @@
         <v>842</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -50151,13 +50151,13 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -50172,7 +50172,7 @@
         <v>6</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -50193,13 +50193,13 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z7">
         <v>6</v>
@@ -50335,7 +50335,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -50513,7 +50513,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -50555,7 +50555,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>6</v>
@@ -50780,7 +50780,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -50822,7 +50822,7 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z14">
         <v>8</v>
@@ -51026,7 +51026,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -51047,7 +51047,7 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -51089,7 +51089,7 @@
         <v>5</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <v>7</v>
@@ -51198,13 +51198,13 @@
         <v>854</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -51219,13 +51219,13 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -51240,7 +51240,7 @@
         <v>7</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -51261,13 +51261,13 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z19">
         <v>7</v>
@@ -51287,7 +51287,7 @@
         <v>855</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -51308,13 +51308,13 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -51329,7 +51329,7 @@
         <v>6</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -51350,7 +51350,7 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X20">
         <v>5</v>
@@ -51492,7 +51492,7 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>8</v>
@@ -51670,7 +51670,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <v>7</v>
@@ -51712,7 +51712,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <v>7</v>
@@ -52026,7 +52026,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -52068,7 +52068,7 @@
         <v>7</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z28">
         <v>7</v>
@@ -52649,7 +52649,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>9</v>
@@ -52691,7 +52691,7 @@
         <v>6</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z35">
         <v>8</v>
@@ -53047,7 +53047,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -53068,7 +53068,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -53089,7 +53089,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>7</v>
@@ -53110,7 +53110,7 @@
         <v>6</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>6</v>
@@ -53225,7 +53225,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -53246,7 +53246,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -53267,7 +53267,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R7">
         <v>7</v>
@@ -53288,7 +53288,7 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>7</v>
@@ -53492,7 +53492,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -53513,7 +53513,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -53534,7 +53534,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -53555,7 +53555,7 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>6</v>
@@ -54115,7 +54115,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -54136,7 +54136,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -54157,7 +54157,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -54178,7 +54178,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -54204,7 +54204,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -54225,7 +54225,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -54246,7 +54246,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>8</v>
@@ -54267,7 +54267,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -54649,7 +54649,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -54670,7 +54670,7 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -54691,7 +54691,7 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>6</v>
@@ -54712,7 +54712,7 @@
         <v>7</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>6</v>
@@ -54827,7 +54827,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -54848,7 +54848,7 @@
         <v>6</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -54869,7 +54869,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -54890,7 +54890,7 @@
         <v>6</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y25">
         <v>6</v>
@@ -54916,7 +54916,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -54937,7 +54937,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -54958,7 +54958,7 @@
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>6</v>
@@ -54979,7 +54979,7 @@
         <v>6</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>6</v>
@@ -55005,13 +55005,13 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -55026,13 +55026,13 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -55047,13 +55047,13 @@
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>7</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <v>-1</v>
@@ -55068,13 +55068,13 @@
         <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y27">
         <v>6</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -55094,13 +55094,13 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -55115,13 +55115,13 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
         <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -55136,13 +55136,13 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>7</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T28">
         <v>-1</v>
@@ -55157,13 +55157,13 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y28">
         <v>6</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -55272,13 +55272,13 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -55293,13 +55293,13 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>8</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -55314,13 +55314,13 @@
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R30">
         <v>7</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>-1</v>
@@ -55335,13 +55335,13 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y30">
         <v>8</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -55717,7 +55717,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -55738,7 +55738,7 @@
         <v>5</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -55759,7 +55759,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R35">
         <v>7</v>
@@ -55780,7 +55780,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>6</v>
@@ -55806,7 +55806,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -55827,7 +55827,7 @@
         <v>6</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -55848,7 +55848,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R36">
         <v>7</v>
@@ -55869,7 +55869,7 @@
         <v>6</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y36">
         <v>7</v>
@@ -55984,13 +55984,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -56005,13 +56005,13 @@
         <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -56026,13 +56026,13 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
         <v>7</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>-1</v>
@@ -56047,13 +56047,13 @@
         <v>6</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y38">
         <v>6</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -56073,7 +56073,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -56094,7 +56094,7 @@
         <v>5</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -56115,7 +56115,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39">
         <v>6</v>
@@ -56136,7 +56136,7 @@
         <v>6</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y39">
         <v>6</v>
@@ -56162,7 +56162,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -56183,7 +56183,7 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -56204,7 +56204,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -56225,7 +56225,7 @@
         <v>6</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -56251,7 +56251,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -56272,7 +56272,7 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -56293,7 +56293,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R41">
         <v>7</v>
@@ -56314,7 +56314,7 @@
         <v>7</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y41">
         <v>7</v>
@@ -57752,7 +57752,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -57770,7 +57770,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -57788,7 +57788,7 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>8</v>
@@ -57806,7 +57806,7 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V20">
         <v>6</v>
@@ -58522,7 +58522,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -58540,7 +58540,7 @@
         <v>5</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -58558,7 +58558,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -58576,7 +58576,7 @@
         <v>6</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -59292,7 +59292,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -59310,7 +59310,7 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -59328,7 +59328,7 @@
         <v>7</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -59346,7 +59346,7 @@
         <v>6</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -59742,7 +59742,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -59760,7 +59760,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -59778,7 +59778,7 @@
         <v>8</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -59796,7 +59796,7 @@
         <v>7</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -60079,7 +60079,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -60097,7 +60097,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -60115,7 +60115,7 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -60133,7 +60133,7 @@
         <v>8</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>9</v>
@@ -60156,7 +60156,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -60174,7 +60174,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -60192,7 +60192,7 @@
         <v>8</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -60210,7 +60210,7 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -60926,7 +60926,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -60944,7 +60944,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -60962,7 +60962,7 @@
         <v>8</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -60980,7 +60980,7 @@
         <v>6</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -61157,7 +61157,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -61175,7 +61175,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -61193,7 +61193,7 @@
         <v>8</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -61211,7 +61211,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -61956,7 +61956,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -61974,7 +61974,7 @@
         <v>5</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -61992,7 +61992,7 @@
         <v>8</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>-1</v>
@@ -62010,7 +62010,7 @@
         <v>6</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -62033,7 +62033,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -62051,7 +62051,7 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -62069,7 +62069,7 @@
         <v>8</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q36">
         <v>-1</v>
@@ -62087,7 +62087,7 @@
         <v>7</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -62110,7 +62110,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -62128,7 +62128,7 @@
         <v>7</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -62146,7 +62146,7 @@
         <v>8</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q37">
         <v>-1</v>
@@ -62164,7 +62164,7 @@
         <v>7</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -62187,7 +62187,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -62205,7 +62205,7 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -62223,7 +62223,7 @@
         <v>8</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q38">
         <v>-1</v>
@@ -62241,7 +62241,7 @@
         <v>7</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -69320,7 +69320,7 @@
         <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -69338,7 +69338,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>-1</v>
@@ -70294,7 +70294,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -70312,7 +70312,7 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -70330,7 +70330,7 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -70339,7 +70339,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S17">
         <v>-1</v>
@@ -70348,7 +70348,7 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -70357,7 +70357,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -70679,7 +70679,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -70697,7 +70697,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -70715,7 +70715,7 @@
         <v>7</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -70733,7 +70733,7 @@
         <v>6</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -81109,7 +81109,7 @@
         <v>9</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -81186,7 +81186,7 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -81263,7 +81263,7 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -81281,7 +81281,7 @@
         <v>8</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -81340,7 +81340,7 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -81417,7 +81417,7 @@
         <v>9</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -81494,7 +81494,7 @@
         <v>5</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -81571,7 +81571,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -81648,7 +81648,7 @@
         <v>10</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -81725,7 +81725,7 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -81802,7 +81802,7 @@
         <v>10</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -81879,7 +81879,7 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -81956,7 +81956,7 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <v>-1</v>
@@ -82033,7 +82033,7 @@
         <v>10</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -82110,7 +82110,7 @@
         <v>9</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -82187,7 +82187,7 @@
         <v>10</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -82205,7 +82205,7 @@
         <v>9</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -82264,7 +82264,7 @@
         <v>6</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -82341,7 +82341,7 @@
         <v>10</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -82359,7 +82359,7 @@
         <v>8</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -82418,7 +82418,7 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O21">
         <v>-1</v>
@@ -82433,10 +82433,10 @@
         <v>-1</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>5</v>
@@ -82451,7 +82451,7 @@
         <v>7</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -82495,7 +82495,7 @@
         <v>5</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -82513,7 +82513,7 @@
         <v>5</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <v>5</v>
@@ -82572,7 +82572,7 @@
         <v>6</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -82649,7 +82649,7 @@
         <v>6</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -82664,10 +82664,10 @@
         <v>-1</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>5</v>
@@ -82682,7 +82682,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -82726,7 +82726,7 @@
         <v>9</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -82803,7 +82803,7 @@
         <v>5</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>-1</v>
@@ -82880,7 +82880,7 @@
         <v>5</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -82898,7 +82898,7 @@
         <v>5</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U27">
         <v>5</v>
@@ -82957,7 +82957,7 @@
         <v>9</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -82975,7 +82975,7 @@
         <v>6</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -83034,7 +83034,7 @@
         <v>5</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -83049,7 +83049,7 @@
         <v>-1</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T29">
         <v>6</v>
@@ -83067,7 +83067,7 @@
         <v>7</v>
       </c>
       <c r="Y29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -83111,7 +83111,7 @@
         <v>5</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -83126,10 +83126,10 @@
         <v>-1</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30">
         <v>6</v>
@@ -83144,7 +83144,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -83188,7 +83188,7 @@
         <v>9</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -83206,7 +83206,7 @@
         <v>8</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31">
         <v>9</v>
@@ -83265,7 +83265,7 @@
         <v>6</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O32">
         <v>-1</v>
@@ -83342,7 +83342,7 @@
         <v>5</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O33">
         <v>-1</v>
@@ -83419,7 +83419,7 @@
         <v>10</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O34">
         <v>-1</v>
@@ -83496,7 +83496,7 @@
         <v>10</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -83573,7 +83573,7 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -83591,7 +83591,7 @@
         <v>9</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>5</v>
@@ -83650,7 +83650,7 @@
         <v>6</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -83727,7 +83727,7 @@
         <v>10</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -83804,7 +83804,7 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O39">
         <v>-1</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -15937,7 +15937,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -17631,7 +17631,7 @@
         <v>6</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T27">
         <v>6</v>
@@ -22760,7 +22760,7 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T18">
         <v>6</v>
@@ -22778,7 +22778,7 @@
         <v>6</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -22837,7 +22837,7 @@
         <v>7</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -22855,7 +22855,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -23891,7 +23891,7 @@
         <v>8</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -25182,7 +25182,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -25200,7 +25200,7 @@
         <v>8</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -25354,13 +25354,13 @@
         <v>8</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q28">
         <v>5</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S28">
         <v>7</v>
@@ -25413,7 +25413,7 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -25431,7 +25431,7 @@
         <v>7</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -27735,7 +27735,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -28120,7 +28120,7 @@
         <v>6</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T28">
         <v>7</v>
@@ -28138,7 +28138,7 @@
         <v>6</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -31934,7 +31934,7 @@
         <v>5</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -31952,7 +31952,7 @@
         <v>5</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <v>6</v>
@@ -32242,7 +32242,7 @@
         <v>6</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -32260,7 +32260,7 @@
         <v>6</v>
       </c>
       <c r="W17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>5</v>
@@ -32396,7 +32396,7 @@
         <v>6</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -32414,7 +32414,7 @@
         <v>6</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>5</v>
@@ -37681,7 +37681,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -37699,7 +37699,7 @@
         <v>6</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -37717,7 +37717,7 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -37758,7 +37758,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -37776,7 +37776,7 @@
         <v>6</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>6</v>
@@ -37794,7 +37794,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -37835,7 +37835,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -37853,7 +37853,7 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>6</v>
@@ -37871,7 +37871,7 @@
         <v>7</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -38066,7 +38066,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -38084,7 +38084,7 @@
         <v>6</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -38759,7 +38759,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -38777,7 +38777,7 @@
         <v>6</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O22">
         <v>6</v>
@@ -38913,7 +38913,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -38931,7 +38931,7 @@
         <v>6</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <v>6</v>
@@ -39298,7 +39298,7 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -39316,7 +39316,7 @@
         <v>7</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <v>6</v>
@@ -40360,7 +40360,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -40381,7 +40381,7 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -40597,13 +40597,13 @@
         <v>731</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -40618,16 +40618,16 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -40639,34 +40639,34 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>5</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X11">
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -40675,7 +40675,7 @@
         <v>5</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC11">
         <v>5</v>
@@ -40716,7 +40716,7 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -40737,7 +40737,7 @@
         <v>6</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -45453,7 +45453,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -45471,7 +45471,7 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -45992,7 +45992,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -46010,7 +46010,7 @@
         <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -46028,7 +46028,7 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14">
         <v>6</v>
@@ -46069,7 +46069,7 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -46087,7 +46087,7 @@
         <v>5</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>5</v>
@@ -46300,7 +46300,7 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -46318,7 +46318,7 @@
         <v>6</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -58996,7 +58996,7 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -59014,7 +59014,7 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -59032,7 +59032,7 @@
         <v>-1</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T36">
         <v>5</v>
@@ -59050,7 +59050,7 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -59121,7 +59121,7 @@
         <v>5</v>
       </c>
       <c r="W37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -59710,7 +59710,7 @@
         <v>6</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -59728,7 +59728,7 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -59751,7 +59751,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -59769,7 +59769,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -59787,7 +59787,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -59805,7 +59805,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -59893,7 +59893,7 @@
         <v>10</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T7">
         <v>9</v>
@@ -60124,7 +60124,7 @@
         <v>5</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>8</v>
@@ -60142,7 +60142,7 @@
         <v>6</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -60183,7 +60183,7 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>8</v>
@@ -60201,7 +60201,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -60278,7 +60278,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -60432,7 +60432,7 @@
         <v>10</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -60509,7 +60509,7 @@
         <v>10</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -60586,7 +60586,7 @@
         <v>7</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T16">
         <v>9</v>
@@ -60663,7 +60663,7 @@
         <v>10</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <v>9</v>
@@ -60681,7 +60681,7 @@
         <v>8</v>
       </c>
       <c r="Y17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -60740,7 +60740,7 @@
         <v>10</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>10</v>
@@ -60817,7 +60817,7 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -60835,7 +60835,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -60894,7 +60894,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <v>9</v>
@@ -60935,7 +60935,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -60953,7 +60953,7 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>8</v>
@@ -60971,7 +60971,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -60989,7 +60989,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -61048,7 +61048,7 @@
         <v>9</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T22">
         <v>8</v>
@@ -61066,7 +61066,7 @@
         <v>7</v>
       </c>
       <c r="Y22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -61125,7 +61125,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -61166,7 +61166,7 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -61184,7 +61184,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -61202,7 +61202,7 @@
         <v>6</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>6</v>
@@ -61220,7 +61220,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -61279,7 +61279,7 @@
         <v>10</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <v>10</v>
@@ -61356,7 +61356,7 @@
         <v>5</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>9</v>
@@ -61433,7 +61433,7 @@
         <v>6</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <v>9</v>
@@ -61510,7 +61510,7 @@
         <v>8</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T28">
         <v>9</v>
@@ -61616,7 +61616,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <v>10</v>
@@ -61693,7 +61693,7 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T31">
         <v>9</v>
@@ -61770,7 +61770,7 @@
         <v>10</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T32">
         <v>9</v>
@@ -61847,7 +61847,7 @@
         <v>6</v>
       </c>
       <c r="S33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T33">
         <v>10</v>
@@ -61865,7 +61865,7 @@
         <v>8</v>
       </c>
       <c r="Y33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -61906,7 +61906,7 @@
         <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>9</v>
@@ -61924,7 +61924,7 @@
         <v>10</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T34">
         <v>9</v>
@@ -61983,7 +61983,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>8</v>
@@ -62001,7 +62001,7 @@
         <v>7</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -62196,7 +62196,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -62214,7 +62214,7 @@
         <v>7</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>7</v>
@@ -62232,7 +62232,7 @@
         <v>5</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>6</v>
@@ -62250,7 +62250,7 @@
         <v>6</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -62309,7 +62309,7 @@
         <v>6</v>
       </c>
       <c r="S39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T39">
         <v>9</v>
@@ -63449,7 +63449,7 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -63757,7 +63757,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -63834,7 +63834,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -63852,7 +63852,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -63911,7 +63911,7 @@
         <v>5</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -64219,7 +64219,7 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>5</v>
@@ -64237,7 +64237,7 @@
         <v>6</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -64527,7 +64527,7 @@
         <v>6</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>5</v>
@@ -66711,7 +66711,7 @@
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z24">
         <v>8</v>
@@ -68565,7 +68565,7 @@
         <v>9</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -68601,7 +68601,7 @@
         <v>9</v>
       </c>
       <c r="X21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21">
         <v>9</v>
@@ -69293,7 +69293,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -69311,7 +69311,7 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -69329,7 +69329,7 @@
         <v>7</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -69347,7 +69347,7 @@
         <v>6</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -71864,7 +71864,7 @@
         <v>5</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>6</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -42456,7 +42456,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -42474,7 +42474,7 @@
         <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -42492,7 +42492,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -42510,7 +42510,7 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -43629,7 +43629,7 @@
         <v>6</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -43647,7 +43647,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -44861,7 +44861,7 @@
         <v>6</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -44879,7 +44879,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -47133,7 +47133,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -47154,10 +47154,10 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -47175,10 +47175,10 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -47196,7 +47196,7 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>6</v>
@@ -47267,7 +47267,7 @@
         <v>7</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>8</v>
@@ -47332,7 +47332,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -47353,10 +47353,10 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T6">
         <v>8</v>
@@ -47374,7 +47374,7 @@
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z6">
         <v>7</v>
@@ -47400,7 +47400,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -47421,7 +47421,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -47442,7 +47442,7 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>9</v>
@@ -47463,7 +47463,7 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>7</v>
@@ -47489,7 +47489,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -47510,10 +47510,10 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -47531,10 +47531,10 @@
         <v>8</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -47552,7 +47552,7 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>6</v>
@@ -47578,10 +47578,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -47599,10 +47599,10 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -47620,10 +47620,10 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -47641,10 +47641,10 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -47667,10 +47667,10 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -47688,10 +47688,10 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -47709,10 +47709,10 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -47730,10 +47730,10 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA10">
         <v>6</v>
@@ -47890,7 +47890,7 @@
         <v>7</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -47911,7 +47911,7 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA12">
         <v>8</v>
@@ -47955,7 +47955,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -47976,10 +47976,10 @@
         <v>5</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -47997,7 +47997,7 @@
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z13">
         <v>6</v>
@@ -48044,7 +48044,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -48065,10 +48065,10 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>6</v>
@@ -48086,10 +48086,10 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>6</v>
@@ -48112,7 +48112,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -48133,7 +48133,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -48154,10 +48154,10 @@
         <v>7</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -48175,10 +48175,10 @@
         <v>6</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>6</v>
@@ -48246,7 +48246,7 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T16">
         <v>6</v>
@@ -48424,7 +48424,7 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>7</v>
@@ -48445,7 +48445,7 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA18">
         <v>7</v>
@@ -48468,7 +48468,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -48489,10 +48489,10 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -48510,10 +48510,10 @@
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -48531,10 +48531,10 @@
         <v>5</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -48578,7 +48578,7 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -48599,10 +48599,10 @@
         <v>7</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>6</v>
@@ -48691,7 +48691,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -48735,7 +48735,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -48756,7 +48756,7 @@
         <v>5</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -48777,10 +48777,10 @@
         <v>5</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -48798,7 +48798,7 @@
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z22">
         <v>6</v>
@@ -48869,7 +48869,7 @@
         <v>7</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -48890,7 +48890,7 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -48934,7 +48934,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>7</v>
@@ -48955,10 +48955,10 @@
         <v>10</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -48976,7 +48976,7 @@
         <v>7</v>
       </c>
       <c r="Y24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z24">
         <v>7</v>
@@ -49002,10 +49002,10 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -49023,10 +49023,10 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>6</v>
@@ -49044,10 +49044,10 @@
         <v>5</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T25">
         <v>6</v>
@@ -49065,10 +49065,10 @@
         <v>5</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -49136,7 +49136,7 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>6</v>
@@ -49290,7 +49290,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -49311,10 +49311,10 @@
         <v>5</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T28">
         <v>8</v>
@@ -49361,7 +49361,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -49382,7 +49382,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -49403,7 +49403,7 @@
         <v>6</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>6</v>
@@ -49424,7 +49424,7 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA29">
         <v>6</v>
@@ -49447,10 +49447,10 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -49468,10 +49468,10 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -49489,10 +49489,10 @@
         <v>5</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -49510,10 +49510,10 @@
         <v>5</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>6</v>
@@ -49536,10 +49536,10 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -49557,10 +49557,10 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -49578,10 +49578,10 @@
         <v>5</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -49599,10 +49599,10 @@
         <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <v>6</v>
@@ -49914,7 +49914,7 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <v>9</v>
@@ -50003,7 +50003,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -50160,7 +50160,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -50181,7 +50181,7 @@
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -50270,7 +50270,7 @@
         <v>9</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -50338,7 +50338,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -50359,7 +50359,7 @@
         <v>8</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -50380,7 +50380,7 @@
         <v>6</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -50448,7 +50448,7 @@
         <v>9</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -50516,7 +50516,7 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -50537,7 +50537,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -50626,7 +50626,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -50715,7 +50715,7 @@
         <v>6</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -50804,7 +50804,7 @@
         <v>8</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T14">
         <v>7</v>
@@ -50893,7 +50893,7 @@
         <v>8</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <v>8</v>
@@ -50982,7 +50982,7 @@
         <v>10</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <v>10</v>
@@ -51050,7 +51050,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -51071,7 +51071,7 @@
         <v>6</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -51092,7 +51092,7 @@
         <v>6</v>
       </c>
       <c r="Z17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>5</v>
@@ -51160,7 +51160,7 @@
         <v>10</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>9</v>
@@ -51228,7 +51228,7 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -51249,7 +51249,7 @@
         <v>5</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>8</v>
@@ -51270,7 +51270,7 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -51296,7 +51296,7 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -51317,7 +51317,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -51338,7 +51338,7 @@
         <v>7</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -51359,7 +51359,7 @@
         <v>6</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA20">
         <v>5</v>
@@ -51427,7 +51427,7 @@
         <v>10</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>10</v>
@@ -51516,7 +51516,7 @@
         <v>8</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T22">
         <v>9</v>
@@ -51605,7 +51605,7 @@
         <v>8</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -51626,7 +51626,7 @@
         <v>6</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -51694,7 +51694,7 @@
         <v>9</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -51783,7 +51783,7 @@
         <v>8</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T25">
         <v>8</v>
@@ -51872,7 +51872,7 @@
         <v>9</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T26">
         <v>8</v>
@@ -51961,7 +51961,7 @@
         <v>10</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <v>8</v>
@@ -52139,7 +52139,7 @@
         <v>6</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>10</v>
@@ -52160,7 +52160,7 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA29">
         <v>9</v>
@@ -52228,7 +52228,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T30">
         <v>8</v>
@@ -52249,7 +52249,7 @@
         <v>7</v>
       </c>
       <c r="Z30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA30">
         <v>7</v>
@@ -52317,7 +52317,7 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T31">
         <v>8</v>
@@ -52385,7 +52385,7 @@
         <v>8</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>8</v>
@@ -52406,7 +52406,7 @@
         <v>5</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -52584,7 +52584,7 @@
         <v>7</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -52673,7 +52673,7 @@
         <v>6</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T35">
         <v>8</v>
@@ -52762,7 +52762,7 @@
         <v>10</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -53015,7 +53015,7 @@
         <v>7</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W4">
         <v>6</v>
@@ -53036,7 +53036,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -53059,7 +53059,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -53080,10 +53080,10 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>7</v>
@@ -53101,10 +53101,10 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -53122,7 +53122,7 @@
         <v>6</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC5">
         <v>6</v>
@@ -53258,7 +53258,7 @@
         <v>6</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -53279,7 +53279,7 @@
         <v>6</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <v>9</v>
@@ -53300,7 +53300,7 @@
         <v>6</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC7">
         <v>7</v>
@@ -53371,7 +53371,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>8</v>
@@ -53392,7 +53392,7 @@
         <v>7</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -53460,7 +53460,7 @@
         <v>7</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -53504,10 +53504,10 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -53525,10 +53525,10 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -53546,10 +53546,10 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>6</v>
@@ -53567,10 +53567,10 @@
         <v>6</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -53771,7 +53771,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -53792,7 +53792,7 @@
         <v>6</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>8</v>
@@ -53813,10 +53813,10 @@
         <v>8</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -53834,7 +53834,7 @@
         <v>7</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC13">
         <v>7</v>
@@ -53902,10 +53902,10 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -53923,7 +53923,7 @@
         <v>7</v>
       </c>
       <c r="AB14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC14">
         <v>8</v>
@@ -53970,7 +53970,7 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>6</v>
@@ -53991,10 +53991,10 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -54127,10 +54127,10 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -54148,10 +54148,10 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -54169,10 +54169,10 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W17">
         <v>6</v>
@@ -54190,10 +54190,10 @@
         <v>6</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -54216,10 +54216,10 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -54237,10 +54237,10 @@
         <v>6</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -54258,10 +54258,10 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>6</v>
@@ -54279,10 +54279,10 @@
         <v>6</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -54350,7 +54350,7 @@
         <v>8</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W19">
         <v>8</v>
@@ -54368,10 +54368,10 @@
         <v>7</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -54507,7 +54507,7 @@
         <v>7</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -54528,7 +54528,7 @@
         <v>7</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>6</v>
@@ -54549,7 +54549,7 @@
         <v>7</v>
       </c>
       <c r="AC21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -54661,7 +54661,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -54682,10 +54682,10 @@
         <v>6</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -54703,10 +54703,10 @@
         <v>6</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>7</v>
@@ -54724,7 +54724,7 @@
         <v>6</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC23">
         <v>6</v>
@@ -54795,7 +54795,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>9</v>
@@ -54860,10 +54860,10 @@
         <v>6</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -54881,10 +54881,10 @@
         <v>6</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>6</v>
@@ -54902,10 +54902,10 @@
         <v>6</v>
       </c>
       <c r="AB25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -54928,10 +54928,10 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -54949,10 +54949,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -54970,10 +54970,10 @@
         <v>6</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <v>6</v>
@@ -54991,10 +54991,10 @@
         <v>6</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -55017,10 +55017,10 @@
         <v>6</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -55038,10 +55038,10 @@
         <v>7</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>7</v>
@@ -55059,10 +55059,10 @@
         <v>7</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W27">
         <v>6</v>
@@ -55080,10 +55080,10 @@
         <v>7</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -55106,7 +55106,7 @@
         <v>6</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -55127,10 +55127,10 @@
         <v>7</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -55148,10 +55148,10 @@
         <v>7</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W28">
         <v>6</v>
@@ -55169,7 +55169,7 @@
         <v>7</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC28">
         <v>6</v>
@@ -55284,7 +55284,7 @@
         <v>6</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -55305,10 +55305,10 @@
         <v>6</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>7</v>
@@ -55326,10 +55326,10 @@
         <v>6</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W30">
         <v>6</v>
@@ -55347,10 +55347,10 @@
         <v>6</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -55418,7 +55418,7 @@
         <v>6</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W31">
         <v>10</v>
@@ -55593,10 +55593,10 @@
         <v>10</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <v>10</v>
@@ -55614,7 +55614,7 @@
         <v>10</v>
       </c>
       <c r="AB33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC33">
         <v>9</v>
@@ -55729,10 +55729,10 @@
         <v>6</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -55750,10 +55750,10 @@
         <v>6</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P35">
         <v>7</v>
@@ -55771,10 +55771,10 @@
         <v>6</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W35">
         <v>6</v>
@@ -55792,10 +55792,10 @@
         <v>6</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -55818,7 +55818,7 @@
         <v>6</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -55839,10 +55839,10 @@
         <v>7</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P36">
         <v>7</v>
@@ -55860,10 +55860,10 @@
         <v>6</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
         <v>6</v>
@@ -55881,7 +55881,7 @@
         <v>6</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC36">
         <v>6</v>
@@ -55952,7 +55952,7 @@
         <v>6</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W37">
         <v>10</v>
@@ -55973,7 +55973,7 @@
         <v>6</v>
       </c>
       <c r="AC37">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -55996,7 +55996,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -56017,10 +56017,10 @@
         <v>6</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P38">
         <v>7</v>
@@ -56038,10 +56038,10 @@
         <v>6</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W38">
         <v>6</v>
@@ -56059,7 +56059,7 @@
         <v>6</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC38">
         <v>6</v>
@@ -56106,10 +56106,10 @@
         <v>7</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P39">
         <v>7</v>
@@ -56127,10 +56127,10 @@
         <v>7</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W39">
         <v>6</v>
@@ -56148,7 +56148,7 @@
         <v>7</v>
       </c>
       <c r="AB39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC39">
         <v>6</v>
@@ -56174,7 +56174,7 @@
         <v>6</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>7</v>
@@ -56195,10 +56195,10 @@
         <v>6</v>
       </c>
       <c r="N40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>7</v>
@@ -56216,10 +56216,10 @@
         <v>6</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W40">
         <v>6</v>
@@ -56237,10 +56237,10 @@
         <v>6</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AC40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -56529,7 +56529,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -56547,10 +56547,10 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -56565,10 +56565,10 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -56583,10 +56583,10 @@
         <v>5</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -56760,7 +56760,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -56778,7 +56778,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -56796,10 +56796,10 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -56814,10 +56814,10 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -56917,7 +56917,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -56935,7 +56935,7 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -56953,7 +56953,7 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -56971,7 +56971,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -57027,7 +57027,7 @@
         <v>10</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -57045,7 +57045,7 @@
         <v>9</v>
       </c>
       <c r="X10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -57068,7 +57068,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -57086,7 +57086,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -57104,7 +57104,7 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -57122,7 +57122,7 @@
         <v>5</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -57258,7 +57258,7 @@
         <v>10</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>9</v>
@@ -57276,7 +57276,7 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -57684,7 +57684,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -57702,7 +57702,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>8</v>
@@ -57720,7 +57720,7 @@
         <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -57738,7 +57738,7 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y19">
         <v>7</v>
@@ -57761,7 +57761,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -57779,7 +57779,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -57797,7 +57797,7 @@
         <v>8</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -57815,7 +57815,7 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y20">
         <v>7</v>
@@ -57992,7 +57992,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -58010,7 +58010,7 @@
         <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>9</v>
@@ -58028,7 +58028,7 @@
         <v>10</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -58046,7 +58046,7 @@
         <v>9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>9</v>
@@ -58259,7 +58259,7 @@
         <v>9</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>9</v>
@@ -58277,7 +58277,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>9</v>
@@ -58454,7 +58454,7 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -58472,7 +58472,7 @@
         <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>9</v>
@@ -58490,7 +58490,7 @@
         <v>10</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S29">
         <v>10</v>
@@ -58508,7 +58508,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>9</v>
@@ -58570,7 +58570,7 @@
         <v>6</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -58608,10 +58608,10 @@
         <v>6</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -58626,10 +58626,10 @@
         <v>6</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>6</v>
@@ -58644,10 +58644,10 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -58662,10 +58662,10 @@
         <v>6</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -58685,10 +58685,10 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -58703,10 +58703,10 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>6</v>
@@ -58721,10 +58721,10 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T32">
         <v>6</v>
@@ -58739,10 +58739,10 @@
         <v>6</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -58916,7 +58916,7 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -58934,7 +58934,7 @@
         <v>5</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>8</v>
@@ -58952,7 +58952,7 @@
         <v>8</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S35">
         <v>8</v>
@@ -58970,7 +58970,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -58993,7 +58993,7 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -59011,7 +59011,7 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <v>6</v>
@@ -59029,7 +59029,7 @@
         <v>5</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S36">
         <v>6</v>
@@ -59047,7 +59047,7 @@
         <v>5</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y36">
         <v>6</v>
@@ -59070,7 +59070,7 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -59088,10 +59088,10 @@
         <v>6</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>6</v>
@@ -59106,10 +59106,10 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>6</v>
@@ -59124,7 +59124,7 @@
         <v>6</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y37">
         <v>6</v>
@@ -59183,7 +59183,7 @@
         <v>10</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <v>9</v>
@@ -59201,7 +59201,7 @@
         <v>8</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y38">
         <v>9</v>
@@ -59455,7 +59455,7 @@
         <v>6</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -59473,7 +59473,7 @@
         <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <v>7</v>
@@ -59491,7 +59491,7 @@
         <v>7</v>
       </c>
       <c r="R42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S42">
         <v>8</v>
@@ -59509,7 +59509,7 @@
         <v>6</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -69305,7 +69305,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -69323,7 +69323,7 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>7</v>
@@ -69341,7 +69341,7 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -69359,7 +69359,7 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -69382,7 +69382,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -69400,7 +69400,7 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>7</v>
@@ -69418,7 +69418,7 @@
         <v>9</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -69436,7 +69436,7 @@
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -69572,7 +69572,7 @@
         <v>9</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>9</v>
@@ -69590,7 +69590,7 @@
         <v>8</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -69613,7 +69613,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -69631,7 +69631,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>9</v>
@@ -69649,7 +69649,7 @@
         <v>7</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -69667,7 +69667,7 @@
         <v>7</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -69880,7 +69880,7 @@
         <v>9</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>8</v>
@@ -69898,7 +69898,7 @@
         <v>8</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -69921,7 +69921,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -69939,7 +69939,7 @@
         <v>6</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -69957,7 +69957,7 @@
         <v>5</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -69975,7 +69975,7 @@
         <v>7</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -70016,7 +70016,7 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>8</v>
@@ -70034,7 +70034,7 @@
         <v>5</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -70052,7 +70052,7 @@
         <v>7</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -70152,7 +70152,7 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -70170,7 +70170,7 @@
         <v>7</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -70188,7 +70188,7 @@
         <v>9</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -70206,7 +70206,7 @@
         <v>7</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -70306,7 +70306,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -70324,7 +70324,7 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>7</v>
@@ -70342,7 +70342,7 @@
         <v>7</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>6</v>
@@ -70360,7 +70360,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -70460,7 +70460,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -70478,7 +70478,7 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -70496,7 +70496,7 @@
         <v>9</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>10</v>
@@ -70514,7 +70514,7 @@
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -70537,7 +70537,7 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -70555,7 +70555,7 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>8</v>
@@ -70573,7 +70573,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -70591,7 +70591,7 @@
         <v>7</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -70845,7 +70845,7 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -70863,7 +70863,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -70881,7 +70881,7 @@
         <v>5</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>7</v>
@@ -70899,7 +70899,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -73451,7 +73451,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>7</v>
@@ -73469,7 +73469,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -73487,7 +73487,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -73587,7 +73587,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -73605,7 +73605,7 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -73623,7 +73623,7 @@
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -73641,7 +73641,7 @@
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -73854,7 +73854,7 @@
         <v>7</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -73872,7 +73872,7 @@
         <v>7</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -73895,7 +73895,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -73913,7 +73913,7 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -73931,7 +73931,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -73949,7 +73949,7 @@
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -73972,7 +73972,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -73990,7 +73990,7 @@
         <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -74008,7 +74008,7 @@
         <v>6</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -74026,7 +74026,7 @@
         <v>7</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -74511,7 +74511,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -74529,7 +74529,7 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -74547,7 +74547,7 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -74565,7 +74565,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -74701,7 +74701,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -74719,7 +74719,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -74819,7 +74819,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -74837,7 +74837,7 @@
         <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -74855,7 +74855,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T23">
         <v>5</v>
@@ -74873,7 +74873,7 @@
         <v>6</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -74991,7 +74991,7 @@
         <v>6</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -75009,7 +75009,7 @@
         <v>6</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -75027,7 +75027,7 @@
         <v>6</v>
       </c>
       <c r="Y25">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -4351,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>6</v>
@@ -4682,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -4736,7 +4736,7 @@
         <v>9</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>10</v>
@@ -5221,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -5275,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>9</v>
@@ -6746,7 +6746,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -6800,7 +6800,7 @@
         <v>-1</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>7</v>
@@ -7208,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -7262,7 +7262,7 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>9</v>
@@ -7516,7 +7516,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -7570,7 +7570,7 @@
         <v>10</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -8440,7 +8440,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -8494,7 +8494,7 @@
         <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W27">
         <v>7</v>
@@ -9885,7 +9885,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -9939,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>9</v>
@@ -10193,7 +10193,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -10247,7 +10247,7 @@
         <v>10</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V12">
         <v>9</v>
@@ -11348,7 +11348,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -11402,7 +11402,7 @@
         <v>8</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V27">
         <v>9</v>
@@ -11502,7 +11502,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -11556,7 +11556,7 @@
         <v>8</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <v>9</v>
@@ -35496,7 +35496,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -35550,7 +35550,7 @@
         <v>6</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -35881,7 +35881,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -35935,7 +35935,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>7</v>
@@ -43634,7 +43634,7 @@
         <v>7</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>-1</v>
@@ -43688,7 +43688,7 @@
         <v>7</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -53364,7 +53364,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -53418,7 +53418,7 @@
         <v>5</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <v>5</v>
@@ -55040,7 +55040,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -55094,7 +55094,7 @@
         <v>10</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -56657,7 +56657,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -56711,7 +56711,7 @@
         <v>10</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>5</v>
@@ -56965,7 +56965,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -57019,7 +57019,7 @@
         <v>10</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W32">
         <v>5</v>
@@ -77023,7 +77023,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -77077,7 +77077,7 @@
         <v>8</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>6</v>
@@ -80935,7 +80935,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -80989,7 +80989,7 @@
         <v>8</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W27">
         <v>9</v>
@@ -83846,7 +83846,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -83900,7 +83900,7 @@
         <v>8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W20">
         <v>6</v>
@@ -85060,7 +85060,7 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -85114,7 +85114,7 @@
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -85137,7 +85137,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -85191,7 +85191,7 @@
         <v>8</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>8</v>
@@ -85984,7 +85984,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -86038,7 +86038,7 @@
         <v>7</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>9</v>
@@ -86754,7 +86754,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -86808,7 +86808,7 @@
         <v>7</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V32">
         <v>6</v>
@@ -86831,7 +86831,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -86885,7 +86885,7 @@
         <v>8</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V33">
         <v>9</v>
@@ -87740,7 +87740,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -87794,7 +87794,7 @@
         <v>9</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>9</v>
@@ -87894,7 +87894,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -87948,7 +87948,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V9">
         <v>10</v>
@@ -88202,7 +88202,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -88256,7 +88256,7 @@
         <v>7</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V13">
         <v>6</v>
@@ -88741,7 +88741,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -88795,7 +88795,7 @@
         <v>9</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V20">
         <v>10</v>
@@ -89434,7 +89434,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -89488,7 +89488,7 @@
         <v>9</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V29">
         <v>8</v>
@@ -89973,7 +89973,7 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -90027,7 +90027,7 @@
         <v>8</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -90050,7 +90050,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -90104,7 +90104,7 @@
         <v>8</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V37">
         <v>9</v>
@@ -90127,7 +90127,7 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -90181,7 +90181,7 @@
         <v>8</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V38">
         <v>6</v>
@@ -90281,7 +90281,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -90335,7 +90335,7 @@
         <v>10</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V40">
         <v>9</v>
@@ -90358,7 +90358,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -90412,7 +90412,7 @@
         <v>10</v>
       </c>
       <c r="U41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V41">
         <v>10</v>

--- a/Calificaciones.xlsx
+++ b/Calificaciones.xlsx
@@ -6832,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -6886,7 +6886,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -7371,7 +7371,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -7425,7 +7425,7 @@
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -7833,7 +7833,7 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -7887,7 +7887,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8526,7 +8526,7 @@
         <v>9</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -8580,7 +8580,7 @@
         <v>9</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -9219,7 +9219,7 @@
         <v>6</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -9273,7 +9273,7 @@
         <v>6</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -18557,7 +18557,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -18611,7 +18611,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>7</v>
@@ -18711,7 +18711,7 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -18765,7 +18765,7 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <v>8</v>
@@ -18942,7 +18942,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -18996,7 +18996,7 @@
         <v>8</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -19096,7 +19096,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -19150,7 +19150,7 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>7</v>
@@ -19250,7 +19250,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -19304,7 +19304,7 @@
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -19866,7 +19866,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -19920,7 +19920,7 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -20097,7 +20097,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -20151,7 +20151,7 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -20790,7 +20790,7 @@
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>-1</v>
@@ -20844,7 +20844,7 @@
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -21098,7 +21098,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -21152,7 +21152,7 @@
         <v>7</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -21471,7 +21471,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -21525,7 +21525,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -21702,7 +21702,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -21756,7 +21756,7 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -22010,7 +22010,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -22064,7 +22064,7 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -22164,7 +22164,7 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -22218,7 +22218,7 @@
         <v>6</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y15">
         <v>5</v>
@@ -22318,7 +22318,7 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -22372,7 +22372,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -22395,7 +22395,7 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -22449,7 +22449,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -22934,7 +22934,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -22988,7 +22988,7 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>6</v>
@@ -23088,7 +23088,7 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -23142,7 +23142,7 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>5</v>
@@ -23165,7 +23165,7 @@
         <v>6</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -23219,7 +23219,7 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>6</v>
@@ -24992,7 +24992,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -25046,7 +25046,7 @@
         <v>-1</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -25470,7 +25470,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -25533,7 +25533,7 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -26004,7 +26004,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -26067,7 +26067,7 @@
         <v>8</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA11">
         <v>10</v>
@@ -26093,7 +26093,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -26156,7 +26156,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -26182,7 +26182,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -26245,7 +26245,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -26627,7 +26627,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -26690,7 +26690,7 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA18">
         <v>10</v>
@@ -26894,7 +26894,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -26957,7 +26957,7 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA21">
         <v>9</v>
@@ -27339,7 +27339,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -27402,7 +27402,7 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>8</v>
@@ -27428,7 +27428,7 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -27491,7 +27491,7 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -27606,7 +27606,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>-1</v>
@@ -27669,7 +27669,7 @@
         <v>8</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -27784,7 +27784,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -27847,7 +27847,7 @@
         <v>7</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <v>10</v>
@@ -27873,7 +27873,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -27936,7 +27936,7 @@
         <v>7</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -28984,7 +28984,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -29038,7 +29038,7 @@
         <v>8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -29446,7 +29446,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -29500,7 +29500,7 @@
         <v>8</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>8</v>
@@ -29600,7 +29600,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -29654,7 +29654,7 @@
         <v>8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -29831,7 +29831,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -29885,7 +29885,7 @@
         <v>8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -30216,7 +30216,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -30270,7 +30270,7 @@
         <v>7</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -30293,7 +30293,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -30347,7 +30347,7 @@
         <v>7</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X29">
         <v>7</v>
@@ -30447,7 +30447,7 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -30501,7 +30501,7 @@
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -31581,7 +31581,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -31635,7 +31635,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <v>6</v>
@@ -31889,7 +31889,7 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -31943,7 +31943,7 @@
         <v>-1</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -32052,7 +32052,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -32106,7 +32106,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -32428,7 +32428,7 @@
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -32482,7 +32482,7 @@
         <v>-1</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V21">
         <v>-1</v>
@@ -32582,7 +32582,7 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -32636,7 +32636,7 @@
         <v>-1</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <v>-1</v>
@@ -32659,7 +32659,7 @@
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -32713,7 +32713,7 @@
         <v>-1</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -33737,7 +33737,7 @@
         <v>-1</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -33791,7 +33791,7 @@
         <v>-1</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V38">
         <v>6</v>
@@ -33814,7 +33814,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -33868,7 +33868,7 @@
         <v>6</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -34122,7 +34122,7 @@
         <v>-1</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -34176,7 +34176,7 @@
         <v>-1</v>
       </c>
       <c r="U43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V43">
         <v>-1</v>
@@ -35111,7 +35111,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -35165,7 +35165,7 @@
         <v>6</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -43557,7 +43557,7 @@
         <v>9</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -43611,7 +43611,7 @@
         <v>9</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -47933,7 +47933,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -47987,7 +47987,7 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -48241,7 +48241,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -48295,7 +48295,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -48395,7 +48395,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -48449,7 +48449,7 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -48472,7 +48472,7 @@
         <v>8</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -48526,7 +48526,7 @@
         <v>8</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -48549,7 +48549,7 @@
         <v>-1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -48603,7 +48603,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -48626,7 +48626,7 @@
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -48680,7 +48680,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -48703,7 +48703,7 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -48757,7 +48757,7 @@
         <v>8</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -48780,7 +48780,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -48834,7 +48834,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -48857,7 +48857,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -48911,7 +48911,7 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -49011,7 +49011,7 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -49065,7 +49065,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -49242,7 +49242,7 @@
         <v>7</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -49296,7 +49296,7 @@
         <v>7</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -49319,7 +49319,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -49373,7 +49373,7 @@
         <v>10</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -49396,7 +49396,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -49450,7 +49450,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -49550,7 +49550,7 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -49604,7 +49604,7 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -49781,7 +49781,7 @@
         <v>9</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -49835,7 +49835,7 @@
         <v>9</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -49858,7 +49858,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -49912,7 +49912,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -49935,7 +49935,7 @@
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -49989,7 +49989,7 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -50089,7 +50089,7 @@
         <v>9</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -50143,7 +50143,7 @@
         <v>9</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -50243,7 +50243,7 @@
         <v>9</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -50297,7 +50297,7 @@
         <v>9</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -50320,7 +50320,7 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -50374,7 +50374,7 @@
         <v>10</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -57652,7 +57652,7 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -57706,7 +57706,7 @@
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -57806,7 +57806,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -57860,7 +57860,7 @@
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -58114,7 +58114,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -58168,7 +58168,7 @@
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -58268,7 +58268,7 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -58322,7 +58322,7 @@
         <v>8</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -58345,7 +58345,7 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -58399,7 +58399,7 @@
         <v>7</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -58576,7 +58576,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -58630,7 +58630,7 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -58807,7 +58807,7 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -58861,7 +58861,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -59067,7 +59067,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -59121,7 +59121,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -59144,7 +59144,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -59198,7 +59198,7 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -70118,7 +70118,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -70127,7 +70127,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -70172,7 +70172,7 @@
         <v>6</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -70181,7 +70181,7 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -70281,7 +70281,7 @@
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -70335,7 +70335,7 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -70503,7 +70503,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -70512,7 +70512,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -70557,7 +70557,7 @@
         <v>5</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -70566,7 +70566,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -70666,7 +70666,7 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -70720,7 +70720,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -70734,7 +70734,7 @@
         <v>-1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -70743,7 +70743,7 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -70788,7 +70788,7 @@
         <v>-1</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -70797,7 +70797,7 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -71889,7 +71889,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>-1</v>
@@ -71898,7 +71898,7 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -71943,7 +71943,7 @@
         <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -71952,7 +71952,7 @@
         <v>5</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -71975,7 +71975,7 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -72029,7 +72029,7 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -72043,7 +72043,7 @@
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -72052,7 +72052,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -72097,7 +72097,7 @@
         <v>-1</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -72106,7 +72106,7 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -72197,7 +72197,7 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -72224,7 +72224,7 @@
         <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -72247,7 +72247,7 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -72301,7 +72301,7 @@
         <v>5</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -72392,7 +72392,7 @@
         <v>-1</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -72401,7 +72401,7 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -72446,7 +72446,7 @@
         <v>-1</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -72455,7 +72455,7 @@
         <v>5</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -72694,13 +72694,13 @@
         <v>1086</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -72721,13 +72721,13 @@
         <v>-1</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X38">
         <v>5</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -72827,7 +72827,7 @@
         <v>-1</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>-1</v>
@@ -72881,7 +72881,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
